--- a/독서-테이블명세.xlsx
+++ b/독서-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505004\Documents\workspace\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1BDD1-FFAB-4D5E-AB80-6A5C5D78529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768357DE-CAA8-4112-BF75-8041DB366D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="0" windowWidth="11100" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자(정보)" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>문자열(17)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1111,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1856,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1875,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2272,7 +2280,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3044,7 +3052,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3426,12 +3434,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
